--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dntva-fps0001.spt.local\Intake2016$\BanksJ\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pepperellj2\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11595"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,18 +24,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>Banks</t>
-  </si>
-  <si>
-    <t>Jade</t>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -380,12 +373,12 @@
   <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1">
         <v>128</v>
       </c>
@@ -410,14 +403,8 @@
       <c r="I1">
         <v>1</v>
       </c>
-      <c r="J1" t="s">
-        <v>1</v>
-      </c>
-      <c r="K1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:9" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1">
         <v>0</v>
@@ -444,7 +431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1">
         <v>1</v>
@@ -471,7 +458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="2">
         <v>1</v>
@@ -495,7 +482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="2">
         <v>1</v>
@@ -522,7 +509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13">
         <v>64</v>
       </c>
@@ -545,7 +532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="1">
         <v>0</v>
       </c>
@@ -568,7 +555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="1">
         <v>0</v>
       </c>
@@ -591,7 +578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>1</v>
       </c>
